--- a/biology/Zoologie/Bulbaeolidia/Bulbaeolidia.xlsx
+++ b/biology/Zoologie/Bulbaeolidia/Bulbaeolidia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bulbaeolidia est un genre de nudibranches de la famille des Aeolidiidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Bulbaeolidia a été décrit en 2013 par Leila Carmona (d), Marta Pola (d), Terrence M. Gosliner (d) et Juan Lucas Cervera (d).
 </t>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (31 janvier 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (31 janvier 2021) :
 Bulbaeolidia alba (Risbec, 1928)
 Bulbaeolidia japonica (Eliot, 1913)
 Bulbaeolidia oasis Caballer &amp; Ortea, 2015
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Leila Carmona, Marta Pola, Terrence M Gosliner et Juan Lucas Cervera, « A tale that morphology fails to tell: a molecular phylogeny of Aeolidiidae (Aeolidida, Nudibranchia, Gastropoda) », PLOS One, PLoS, vol. 8, no 5,‎ 2013, e63000 (ISSN 1932-6203, OCLC 228234657, PMID 23658794, PMCID 3642091, DOI 10.1371/JOURNAL.PONE.0063000, lire en ligne)</t>
         </is>
